--- a/poem_key.xlsx
+++ b/poem_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iewha-my.sharepoint.com/personal/02mjpark_i_ewha_ac_kr/Documents/바탕 화면/시/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="13_ncr:1_{56972ACE-939B-4AFC-9B7E-CA45D67D84B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48095FB7-E1CF-4A1C-9403-07458AFAED35}"/>
+  <xr:revisionPtr revIDLastSave="486" documentId="13_ncr:1_{56972ACE-939B-4AFC-9B7E-CA45D67D84B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E3FE49-A1F7-4C65-B842-3AC973B1130A}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1035" windowWidth="21600" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="930" windowWidth="21600" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21386,2295 +21386,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>가난도 지나고 보면 즐거운 친구라고
-배춧국 김 오르는 양은 그릇들이 날을 부딪치며 속삭인다
-쌀과 채소가 내 안에 타올라 목숨이 되는 것을      
-나무의 무언</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>으로는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>없어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>써보는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>봄밤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어느</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>집</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>눈썹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여린</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>처녀가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삼십촉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아래</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이별이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>긴 소설을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>읽는가보다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>땅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위에는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름보다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>훨씬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>많은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사람들이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서까래</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아래</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가꾸듯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다독여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잠재운다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여기에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>우리는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>살러</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>왔다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>누가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>푸른</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>밤이면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오리나무</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>숲에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비둘기를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>울리는지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아낙의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바느질</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비둘기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>울음이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기워지는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>봄 밤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잊혀지지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>않은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>것들은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모두</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>슬픈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빛깔을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>띠고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>숟가락으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>헤아린</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나이테</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>없어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>헤는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>것도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>형벌인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>낫에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잘린</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>봄 풀이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작년의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그루터기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>또</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>푸르게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>돋는다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여기에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>우리는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잠시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주소를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>적어두려</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>왔다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어느</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>집인들</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>근심</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>없는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>집이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있으랴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>군불</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연기들은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가정의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고통을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>태우며</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타오르고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>근심이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쌓여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추녀가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>낮아지는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>집들</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여기에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>우리는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한 줌의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삶을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기탁하러</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>왔다</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지상에서 부르고 싶은 노래1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -34791,6 +32502,2295 @@
         <family val="3"/>
       </rPr>
       <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>가난도 지나고 보면 즐거운 친구라고
+배춧국 김 오르는 양은 그릇들이 날을 부딪치며 속삭인다
+쌀과 채소가 내 안에 타올라 목숨이 되는 것을
+나무의 무언</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>써보는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>봄밤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어느</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눈썹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처녀가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삼십촉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이별이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긴 소설을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>읽는가보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>땅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>훨씬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서까래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가꾸듯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다독여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잠재운다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>왔다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>푸른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밤이면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오리나무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숲에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비둘기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>울리는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아낙의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바느질</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비둘기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>울음이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기워지는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>봄 밤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잊혀지지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것들은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>슬픈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빛깔을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>띠고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숟가락으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헤아린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나이테</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헤는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형벌인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낫에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잘린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>봄 풀이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작년의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그루터기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>푸르게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돋는다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잠시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적어두려</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>왔다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어느</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집인들</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있으랴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>군불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연기들은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가정의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고통을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태우며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타오르고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근심이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쌓여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추녀가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낮아지는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집들</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한 줌의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삶을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기탁하러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>왔다</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -35285,8 +35285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="A332" sqref="A332"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="D321" sqref="D321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -45311,7 +45311,7 @@
         <v>1752</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>1753</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="409.5">
@@ -45322,10 +45322,10 @@
         <v>1751</v>
       </c>
       <c r="C322" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D322" s="5" t="s">
         <v>1754</v>
-      </c>
-      <c r="D322" s="5" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="383.25">
@@ -45336,10 +45336,10 @@
         <v>1751</v>
       </c>
       <c r="C323" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D323" s="5" t="s">
         <v>1756</v>
-      </c>
-      <c r="D323" s="5" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="409.5">
@@ -45350,10 +45350,10 @@
         <v>1751</v>
       </c>
       <c r="C324" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="381">
@@ -45364,10 +45364,10 @@
         <v>1751</v>
       </c>
       <c r="C325" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D325" s="5" t="s">
         <v>1760</v>
-      </c>
-      <c r="D325" s="5" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="115.5">
@@ -45375,13 +45375,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C326" t="s">
         <v>1762</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" s="5" t="s">
         <v>1763</v>
-      </c>
-      <c r="D326" s="5" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="338.25">
@@ -45389,13 +45389,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C327" t="s">
         <v>1765</v>
       </c>
-      <c r="C327" t="s">
+      <c r="D327" s="5" t="s">
         <v>1766</v>
-      </c>
-      <c r="D327" s="5" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="97.5">
@@ -45403,13 +45403,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C328" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D328" s="4" t="s">
         <v>1768</v>
-      </c>
-      <c r="D328" s="4" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="234">
@@ -45417,13 +45417,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C329" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D329" s="5" t="s">
         <v>1770</v>
-      </c>
-      <c r="D329" s="5" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="78">
@@ -45431,13 +45431,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C330" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D330" s="4" t="s">
         <v>1772</v>
-      </c>
-      <c r="D330" s="4" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="156">
@@ -45445,13 +45445,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C331" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D331" s="4" t="s">
         <v>1774</v>
-      </c>
-      <c r="D331" s="4" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="19.5">
